--- a/resultados_parametros_random.xlsx
+++ b/resultados_parametros_random.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,342 +1126,1942 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.04945249110460281</v>
+      </c>
+      <c r="C22" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H22" t="n">
+        <v>256</v>
+      </c>
+      <c r="I22" t="n">
+        <v>128</v>
+      </c>
+      <c r="J22" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>436</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.04909925907850266</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>448</v>
+      </c>
+      <c r="I23" t="n">
+        <v>192</v>
+      </c>
+      <c r="J23" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>247</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.04839279502630234</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H24" t="n">
+        <v>256</v>
+      </c>
+      <c r="I24" t="n">
+        <v>160</v>
+      </c>
+      <c r="J24" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>375</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.04556693881750107</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>320</v>
+      </c>
+      <c r="I25" t="n">
+        <v>128</v>
+      </c>
+      <c r="J25" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>692</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.04556693881750107</v>
+      </c>
+      <c r="C26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>256</v>
+      </c>
+      <c r="I26" t="n">
+        <v>192</v>
+      </c>
+      <c r="J26" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>804</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.04450724273920059</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>256</v>
+      </c>
+      <c r="I27" t="n">
+        <v>160</v>
+      </c>
+      <c r="J27" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>572</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.04380077868700027</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H28" t="n">
+        <v>288</v>
+      </c>
+      <c r="I28" t="n">
+        <v>128</v>
+      </c>
+      <c r="J28" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>670</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.04344754666090012</v>
+      </c>
+      <c r="C29" t="n">
+        <v>30</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>256</v>
+      </c>
+      <c r="I29" t="n">
+        <v>224</v>
+      </c>
+      <c r="J29" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>349</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.04309431463479996</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>256</v>
+      </c>
+      <c r="I30" t="n">
+        <v>192</v>
+      </c>
+      <c r="J30" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0427410826086998</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>320</v>
+      </c>
+      <c r="I31" t="n">
+        <v>160</v>
+      </c>
+      <c r="J31" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>318</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.05015895515680313</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>512</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>288</v>
+      </c>
+      <c r="I32" t="n">
+        <v>160</v>
+      </c>
+      <c r="J32" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>446</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.04909925907850266</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" t="n">
+        <v>512</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H33" t="n">
+        <v>288</v>
+      </c>
+      <c r="I33" t="n">
+        <v>224</v>
+      </c>
+      <c r="J33" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>564</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.04909925907850266</v>
+      </c>
+      <c r="C34" t="n">
+        <v>30</v>
+      </c>
+      <c r="D34" t="n">
+        <v>512</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>288</v>
+      </c>
+      <c r="I34" t="n">
+        <v>160</v>
+      </c>
+      <c r="J34" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>568</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0469798669219017</v>
+      </c>
+      <c r="C35" t="n">
+        <v>30</v>
+      </c>
+      <c r="D35" t="n">
+        <v>512</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>256</v>
+      </c>
+      <c r="I35" t="n">
+        <v>160</v>
+      </c>
+      <c r="J35" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>320</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.04627340286970139</v>
+      </c>
+      <c r="C36" t="n">
+        <v>30</v>
+      </c>
+      <c r="D36" t="n">
+        <v>512</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>352</v>
+      </c>
+      <c r="I36" t="n">
+        <v>128</v>
+      </c>
+      <c r="J36" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>896</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.04627340286970139</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30</v>
+      </c>
+      <c r="D37" t="n">
+        <v>512</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>352</v>
+      </c>
+      <c r="I37" t="n">
+        <v>128</v>
+      </c>
+      <c r="J37" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>569</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.04556693881750107</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30</v>
+      </c>
+      <c r="D38" t="n">
+        <v>512</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>416</v>
+      </c>
+      <c r="I38" t="n">
+        <v>160</v>
+      </c>
+      <c r="J38" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>315</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.04486047476530075</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" t="n">
+        <v>512</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H39" t="n">
+        <v>288</v>
+      </c>
+      <c r="I39" t="n">
+        <v>192</v>
+      </c>
+      <c r="J39" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>921</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.04486047476530075</v>
+      </c>
+      <c r="C40" t="n">
+        <v>30</v>
+      </c>
+      <c r="D40" t="n">
+        <v>512</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>288</v>
+      </c>
+      <c r="I40" t="n">
+        <v>128</v>
+      </c>
+      <c r="J40" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>182</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.04450724273920059</v>
+      </c>
+      <c r="C41" t="n">
+        <v>30</v>
+      </c>
+      <c r="D41" t="n">
+        <v>512</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>416</v>
+      </c>
+      <c r="I41" t="n">
+        <v>128</v>
+      </c>
+      <c r="J41" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>318</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.05015895515680313</v>
+      </c>
+      <c r="C42" t="n">
+        <v>30</v>
+      </c>
+      <c r="D42" t="n">
+        <v>512</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>288</v>
+      </c>
+      <c r="I42" t="n">
+        <v>160</v>
+      </c>
+      <c r="J42" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>446</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.04909925907850266</v>
+      </c>
+      <c r="C43" t="n">
+        <v>30</v>
+      </c>
+      <c r="D43" t="n">
+        <v>512</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H43" t="n">
+        <v>288</v>
+      </c>
+      <c r="I43" t="n">
+        <v>224</v>
+      </c>
+      <c r="J43" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>564</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.04909925907850266</v>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>512</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>288</v>
+      </c>
+      <c r="I44" t="n">
+        <v>160</v>
+      </c>
+      <c r="J44" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>568</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0469798669219017</v>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>512</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>256</v>
+      </c>
+      <c r="I45" t="n">
+        <v>160</v>
+      </c>
+      <c r="J45" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>320</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.04627340286970139</v>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>512</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H46" t="n">
+        <v>352</v>
+      </c>
+      <c r="I46" t="n">
+        <v>128</v>
+      </c>
+      <c r="J46" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>896</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.04627340286970139</v>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>512</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>352</v>
+      </c>
+      <c r="I47" t="n">
+        <v>128</v>
+      </c>
+      <c r="J47" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>569</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.04556693881750107</v>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>512</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>416</v>
+      </c>
+      <c r="I48" t="n">
+        <v>160</v>
+      </c>
+      <c r="J48" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>315</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.04486047476530075</v>
+      </c>
+      <c r="C49" t="n">
+        <v>30</v>
+      </c>
+      <c r="D49" t="n">
+        <v>512</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H49" t="n">
+        <v>288</v>
+      </c>
+      <c r="I49" t="n">
+        <v>192</v>
+      </c>
+      <c r="J49" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>921</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.04486047476530075</v>
+      </c>
+      <c r="C50" t="n">
+        <v>30</v>
+      </c>
+      <c r="D50" t="n">
+        <v>512</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>288</v>
+      </c>
+      <c r="I50" t="n">
+        <v>128</v>
+      </c>
+      <c r="J50" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>182</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.04450724273920059</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
+      </c>
+      <c r="D51" t="n">
+        <v>512</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>416</v>
+      </c>
+      <c r="I51" t="n">
+        <v>128</v>
+      </c>
+      <c r="J51" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.04945249110460281</v>
+      </c>
+      <c r="C52" t="n">
+        <v>30</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H52" t="n">
+        <v>256</v>
+      </c>
+      <c r="I52" t="n">
+        <v>128</v>
+      </c>
+      <c r="J52" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>436</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.04909925907850266</v>
+      </c>
+      <c r="C53" t="n">
+        <v>30</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>448</v>
+      </c>
+      <c r="I53" t="n">
+        <v>192</v>
+      </c>
+      <c r="J53" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>247</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.04839279502630234</v>
+      </c>
+      <c r="C54" t="n">
+        <v>30</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H54" t="n">
+        <v>256</v>
+      </c>
+      <c r="I54" t="n">
+        <v>160</v>
+      </c>
+      <c r="J54" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>375</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.04556693881750107</v>
+      </c>
+      <c r="C55" t="n">
+        <v>30</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>320</v>
+      </c>
+      <c r="I55" t="n">
+        <v>128</v>
+      </c>
+      <c r="J55" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>692</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.04556693881750107</v>
+      </c>
+      <c r="C56" t="n">
+        <v>30</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H56" t="n">
+        <v>256</v>
+      </c>
+      <c r="I56" t="n">
+        <v>192</v>
+      </c>
+      <c r="J56" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>804</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.04450724273920059</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>256</v>
+      </c>
+      <c r="I57" t="n">
+        <v>160</v>
+      </c>
+      <c r="J57" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>572</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.04380077868700027</v>
+      </c>
+      <c r="C58" t="n">
+        <v>30</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H58" t="n">
+        <v>288</v>
+      </c>
+      <c r="I58" t="n">
+        <v>128</v>
+      </c>
+      <c r="J58" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>670</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.04344754666090012</v>
+      </c>
+      <c r="C59" t="n">
+        <v>30</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>256</v>
+      </c>
+      <c r="I59" t="n">
+        <v>224</v>
+      </c>
+      <c r="J59" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>349</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.04309431463479996</v>
+      </c>
+      <c r="C60" t="n">
+        <v>30</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H60" t="n">
+        <v>256</v>
+      </c>
+      <c r="I60" t="n">
+        <v>192</v>
+      </c>
+      <c r="J60" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0427410826086998</v>
+      </c>
+      <c r="C61" t="n">
+        <v>30</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>320</v>
+      </c>
+      <c r="I61" t="n">
+        <v>160</v>
+      </c>
+      <c r="J61" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>318</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.05015895515680313</v>
+      </c>
+      <c r="C62" t="n">
+        <v>30</v>
+      </c>
+      <c r="D62" t="n">
+        <v>512</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>288</v>
+      </c>
+      <c r="I62" t="n">
+        <v>160</v>
+      </c>
+      <c r="J62" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>446</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.04909925907850266</v>
+      </c>
+      <c r="C63" t="n">
+        <v>30</v>
+      </c>
+      <c r="D63" t="n">
+        <v>512</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H63" t="n">
+        <v>288</v>
+      </c>
+      <c r="I63" t="n">
+        <v>224</v>
+      </c>
+      <c r="J63" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>564</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.04909925907850266</v>
+      </c>
+      <c r="C64" t="n">
+        <v>30</v>
+      </c>
+      <c r="D64" t="n">
+        <v>512</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H64" t="n">
+        <v>288</v>
+      </c>
+      <c r="I64" t="n">
+        <v>160</v>
+      </c>
+      <c r="J64" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>568</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0469798669219017</v>
+      </c>
+      <c r="C65" t="n">
+        <v>30</v>
+      </c>
+      <c r="D65" t="n">
+        <v>512</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H65" t="n">
+        <v>256</v>
+      </c>
+      <c r="I65" t="n">
+        <v>160</v>
+      </c>
+      <c r="J65" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>320</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.04627340286970139</v>
+      </c>
+      <c r="C66" t="n">
+        <v>30</v>
+      </c>
+      <c r="D66" t="n">
+        <v>512</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>352</v>
+      </c>
+      <c r="I66" t="n">
+        <v>128</v>
+      </c>
+      <c r="J66" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>896</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.04627340286970139</v>
+      </c>
+      <c r="C67" t="n">
+        <v>30</v>
+      </c>
+      <c r="D67" t="n">
+        <v>512</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>352</v>
+      </c>
+      <c r="I67" t="n">
+        <v>128</v>
+      </c>
+      <c r="J67" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>569</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.04556693881750107</v>
+      </c>
+      <c r="C68" t="n">
+        <v>30</v>
+      </c>
+      <c r="D68" t="n">
+        <v>512</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>416</v>
+      </c>
+      <c r="I68" t="n">
+        <v>160</v>
+      </c>
+      <c r="J68" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>315</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.04486047476530075</v>
+      </c>
+      <c r="C69" t="n">
+        <v>30</v>
+      </c>
+      <c r="D69" t="n">
+        <v>512</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H69" t="n">
+        <v>288</v>
+      </c>
+      <c r="I69" t="n">
+        <v>192</v>
+      </c>
+      <c r="J69" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>921</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.04486047476530075</v>
+      </c>
+      <c r="C70" t="n">
+        <v>30</v>
+      </c>
+      <c r="D70" t="n">
+        <v>512</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>288</v>
+      </c>
+      <c r="I70" t="n">
+        <v>128</v>
+      </c>
+      <c r="J70" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>182</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.04450724273920059</v>
+      </c>
+      <c r="C71" t="n">
+        <v>30</v>
+      </c>
+      <c r="D71" t="n">
+        <v>512</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>416</v>
+      </c>
+      <c r="I71" t="n">
+        <v>128</v>
+      </c>
+      <c r="J71" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>0020</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B72" t="n">
         <v>0.04945249110460281</v>
       </c>
-      <c r="C22" t="n">
-        <v>30</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C72" t="n">
+        <v>30</v>
+      </c>
+      <c r="D72" t="n">
         <v>1024</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E72" t="n">
         <v>0.002</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="F72" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H72" t="n">
         <v>256</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I72" t="n">
         <v>128</v>
       </c>
-      <c r="J22" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="J72" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>0436</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B73" t="n">
         <v>0.04909925907850266</v>
       </c>
-      <c r="C23" t="n">
-        <v>30</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C73" t="n">
+        <v>30</v>
+      </c>
+      <c r="D73" t="n">
         <v>1024</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="E73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H73" t="n">
         <v>448</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I73" t="n">
         <v>192</v>
       </c>
-      <c r="J23" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="J73" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>0247</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B74" t="n">
         <v>0.04839279502630234</v>
       </c>
-      <c r="C24" t="n">
-        <v>30</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C74" t="n">
+        <v>30</v>
+      </c>
+      <c r="D74" t="n">
         <v>1024</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="E74" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H74" t="n">
         <v>256</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I74" t="n">
         <v>160</v>
       </c>
-      <c r="J24" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="J74" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>0375</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B75" t="n">
         <v>0.04556693881750107</v>
       </c>
-      <c r="C25" t="n">
-        <v>30</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C75" t="n">
+        <v>30</v>
+      </c>
+      <c r="D75" t="n">
         <v>1024</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E75" t="n">
         <v>0.002</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="F75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H75" t="n">
         <v>320</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I75" t="n">
         <v>128</v>
       </c>
-      <c r="J25" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="J75" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>0692</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B76" t="n">
         <v>0.04556693881750107</v>
       </c>
-      <c r="C26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C76" t="n">
+        <v>30</v>
+      </c>
+      <c r="D76" t="n">
         <v>1024</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="E76" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H76" t="n">
         <v>256</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I76" t="n">
         <v>192</v>
       </c>
-      <c r="J26" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="J76" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>0804</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B77" t="n">
         <v>0.04450724273920059</v>
       </c>
-      <c r="C27" t="n">
-        <v>30</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C77" t="n">
+        <v>30</v>
+      </c>
+      <c r="D77" t="n">
         <v>1024</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="E77" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H77" t="n">
         <v>256</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I77" t="n">
         <v>160</v>
       </c>
-      <c r="J27" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="J77" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>0572</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B78" t="n">
         <v>0.04380077868700027</v>
       </c>
-      <c r="C28" t="n">
-        <v>30</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C78" t="n">
+        <v>30</v>
+      </c>
+      <c r="D78" t="n">
         <v>1024</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E78" t="n">
         <v>0.002</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="F78" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H78" t="n">
         <v>288</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I78" t="n">
         <v>128</v>
       </c>
-      <c r="J28" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="J78" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>0670</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B79" t="n">
         <v>0.04344754666090012</v>
       </c>
-      <c r="C29" t="n">
-        <v>30</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C79" t="n">
+        <v>30</v>
+      </c>
+      <c r="D79" t="n">
         <v>1024</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="E79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H79" t="n">
         <v>256</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I79" t="n">
         <v>224</v>
       </c>
-      <c r="J29" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="J79" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>0349</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B80" t="n">
         <v>0.04309431463479996</v>
       </c>
-      <c r="C30" t="n">
-        <v>30</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C80" t="n">
+        <v>30</v>
+      </c>
+      <c r="D80" t="n">
         <v>1024</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="E80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H80" t="n">
         <v>256</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I80" t="n">
         <v>192</v>
       </c>
-      <c r="J30" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="J80" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>0063</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B81" t="n">
         <v>0.0427410826086998</v>
       </c>
-      <c r="C31" t="n">
-        <v>30</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C81" t="n">
+        <v>30</v>
+      </c>
+      <c r="D81" t="n">
         <v>1024</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="E81" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H81" t="n">
         <v>320</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I81" t="n">
         <v>160</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J81" t="n">
         <v>64</v>
       </c>
     </row>
